--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -68,6 +68,15 @@
     <t>1440_figma.png</t>
   </si>
   <si>
+    <t>figd_5GRV5H86Yuw8ky2rquTQX2Joc2wDftD8qobraUSH</t>
+  </si>
+  <si>
+    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
+  </si>
+  <si>
+    <t>1394-35397</t>
+  </si>
+  <si>
     <t>iPad</t>
   </si>
   <si>
@@ -84,15 +93,6 @@
   </si>
   <si>
     <t>figma_iphone.png</t>
-  </si>
-  <si>
-    <t>figd_5GRV5H86Yuw8ky2rquTQX2Joc2wDftD8qobraUSH</t>
-  </si>
-  <si>
-    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
-  </si>
-  <si>
-    <t>1394-35397</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1096,14 +1096,22 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1111,33 +1119,24 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
